--- a/~181226발표준비/통합 문서1.xlsx
+++ b/~181226발표준비/통합 문서1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이우상\Documents\Visual Studio 2017\Projects\4 - 2\Capstone_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\사재산\Desktop\Freezebomb\Capstone_Design_TeamProject\~181226발표준비\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7ADC03-6109-48B0-99E8-AED59896F1DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F186D-8B8C-4C59-8B0E-B9521F76709C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8040" xr2:uid="{F4C5FE94-1C36-4BA4-88DF-0C95888DA8BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4C5FE94-1C36-4BA4-88DF-0C95888DA8BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물리 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,14 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI 및 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(TCP)서버 모의 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카툰렌더링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +108,50 @@
   </si>
   <si>
     <t>이우상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이렉트 2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵툴 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 프레임워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠 확장 및 추가 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 프레임 워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 동기화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,9 +238,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +249,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83905EA-1E23-461A-A67F-94ABA6887214}">
-  <dimension ref="C5:N15"/>
+  <dimension ref="C5:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -557,133 +604,285 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="7" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="11"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
